--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Notification_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Notification_JS.xlsx
@@ -1087,23 +1087,6 @@
 };</t>
   </si>
   <si>
-    <t>wait(5);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT307_0043_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwipeNotification(EnterpriseBrowser);
-TapNotification(EnterpriseBrowser);
-CheckUITextContains(Test_Message);
-ClickUIButtonText(ok);
-validate5;</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Manual specs
@@ -1124,23 +1107,6 @@
 };</t>
   </si>
   <si>
-    <t>wait(5);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT307_0044_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwipeNotification(EnterpriseBrowser);
-TapNotification(EnterpriseBrowser);
-CheckUITextContains(Test_Message);
-ClickUIButtonText(ok);
-validate5;</t>
-  </si>
-  <si>
     <t xml:space="preserve">validate1
 {
 validate_PageTitle=Manual specs
@@ -1162,23 +1128,6 @@
 </t>
   </si>
   <si>
-    <t>wait(5);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT307_0045_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwipeNotification(EnterpriseBrowser);
-TapNotification(EnterpriseBrowser);
-CheckUITextContains(Test_Message);
-ClickUIButtonText(ok);
-validate5;</t>
-  </si>
-  <si>
     <t xml:space="preserve">validate1
 {
 validate_PageTitle=Manual specs
@@ -1198,23 +1147,6 @@
 validate_Result="button_index":"0"
 };
 </t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT307_0046_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwipeNotification(EnterpriseBrowser);
-TapNotification(EnterpriseBrowser);
-CheckUITextContains(Test_Message);
-ClickUIButtonText(ok);
-validate5;</t>
   </si>
   <si>
     <t xml:space="preserve">validate1
@@ -1251,6 +1183,74 @@
 UIAutomatorScreenshot(VT307_0056);
 validate4;
 ClickUIButtonText(yes);</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT307_0043_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwipeNotification(Displaying_a_pop_up);
+TapNotification(Displaying_a_pop_up);
+CheckUITextContains(Test_Message);
+ClickUIButtonText(ok);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT307_0044_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwipeNotification(Displaying_a_pop_up);
+TapNotification(Displaying_a_pop_up);
+CheckUITextContains(Test_Message);
+ClickUIButtonText(ok);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT307_0045_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwipeNotification(Displaying_a_pop_up);
+TapNotification(Displaying_a_pop_up);
+CheckUITextContains(Test_Message);
+ClickUIButtonText(ok);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT307_0046_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwipeNotification(Displaying_a_pop_up);
+TapNotification(Displaying_a_pop_up);
+CheckUITextContains(Test_Message);
+ClickUIButtonText(ok);
+validate5;</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2448,10 +2450,10 @@
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -2472,10 +2474,10 @@
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -2496,10 +2498,10 @@
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -2520,10 +2522,10 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -2594,7 +2596,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>99</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Notification_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Notification_JS.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$1:$J$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$1:$J$34</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -81,16 +81,10 @@
     <t>Should allow to interact with application from notification area without activating the application when types is only notificationDialog.</t>
   </si>
   <si>
-    <t>should display a toast when types is only Rho.TYPE_TOAST</t>
-  </si>
-  <si>
     <t>showPopup with Message and title , icon and buttons, with callback for buttton</t>
   </si>
   <si>
     <t>Change Start page</t>
-  </si>
-  <si>
-    <t>showStatus with all null parameters</t>
   </si>
   <si>
     <t>showPopup with only Message</t>
@@ -161,20 +155,6 @@
 validate3
 {
 validate_Text_Exists=VT307-0018
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Notification JS Test
-};
-validate3
-{
-validate_Text_Exists=VT281-0019
 };</t>
   </si>
   <si>
@@ -555,76 +535,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Notification JS Test
-};
-validate3
-{
-validate_Text_Exists=VT307-0048
-};
-validate4
-{
-validate_Screenshot=
-};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT307_0048_string);
-ClickRunTest(runtest_top_xpath);
-wait(3);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT307_0048);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT307_0059_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-CheckUITextContains(This_is_a_pop_up_for_callback);
-ClickUIButtonText(No);
-validate4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Notification JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0059
-};
-validate4
-{
-validate_Result="button_title":"No"
-validate_Result="button_id":"No"
-validate_Result="button_index":"1"
-};
-</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Manual specs
@@ -812,20 +722,7 @@
     <t>Should allow to interact with application from notification area without activating the application when types is only EB.TYPE_NOTIFICATION_DIALOG.</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT281_0019_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-</t>
-  </si>
-  <si>
     <t>should display a alert(!) icon in notification bar with message</t>
-  </si>
-  <si>
-    <t>Need to work</t>
   </si>
   <si>
     <t xml:space="preserve">validate1
@@ -1251,6 +1148,35 @@
 CheckUITextContains(Test_Message);
 ClickUIButtonText(ok);
 validate5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Notification JS Test
+};
+validate4
+{
+validate_Result="button_title":"No"
+validate_Result="button_id":"No"
+validate_Result="button_index":"1"
+};
+</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT307_0059_string);
+ClickRunTest(runtest_top_xpath);
+wait(5);
+CheckUITextContains(This_is_a_pop_up_for_callback);
+ClickUIButtonText(No);
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,7 +1331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1453,7 +1379,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1463,9 +1395,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1760,11 +1689,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1824,13 +1751,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="12">
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="1" t="s">
@@ -1851,16 +1778,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F3" s="13">
         <v>1</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -1884,194 +1811,193 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="153.75" thickBot="1">
-      <c r="A5" s="13">
-        <v>4</v>
+      <c r="A5" s="12">
+        <v>5</v>
       </c>
       <c r="B5" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="153.75" thickBot="1">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" s="16" customFormat="1" ht="166.5" thickBot="1">
+      <c r="A6" s="13">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="230.25" thickBot="1">
+      <c r="A7" s="12">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" ht="166.5" thickBot="1">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="230.25" thickBot="1">
-      <c r="A8" s="12">
-        <v>7</v>
+      <c r="H7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="166.5" thickBot="1">
+      <c r="A8" s="13">
+        <v>8</v>
       </c>
       <c r="B8" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="166.5" thickBot="1">
-      <c r="A9" s="13">
-        <v>8</v>
+    <row r="9" spans="1:11" ht="153.75" thickBot="1">
+      <c r="A9" s="12">
+        <v>9</v>
       </c>
       <c r="B9" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="153.75" thickBot="1">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="192" thickBot="1">
+      <c r="A10" s="13">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="153.75" thickBot="1">
+      <c r="A11" s="12">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" ht="192" thickBot="1">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="153.75" thickBot="1">
-      <c r="A12" s="12">
-        <v>11</v>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" ht="166.5" thickBot="1">
+      <c r="A12" s="13">
+        <v>12</v>
       </c>
       <c r="B12" s="11">
         <v>2</v>
@@ -2081,45 +2007,48 @@
         <v>10</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="166.5" thickBot="1">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <v>2</v>
-      </c>
-      <c r="C13" s="11"/>
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="217.5" thickBot="1">
+      <c r="A13" s="12">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="E13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" s="16" customFormat="1" ht="217.5" thickBot="1">
-      <c r="A14" s="12">
-        <v>13</v>
+      <c r="A14" s="13">
+        <v>14</v>
       </c>
       <c r="B14" s="13">
         <v>1</v>
@@ -2129,78 +2058,78 @@
         <v>10</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="F14" s="13">
         <v>1</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" s="16" customFormat="1" ht="217.5" thickBot="1">
-      <c r="A15" s="13">
-        <v>14</v>
+      <c r="A15" s="12">
+        <v>15</v>
       </c>
       <c r="B15" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F15" s="13">
         <v>1</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" s="16" customFormat="1" ht="217.5" thickBot="1">
-      <c r="A16" s="12">
-        <v>15</v>
+      <c r="A16" s="13">
+        <v>16</v>
       </c>
       <c r="B16" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" ht="217.5" thickBot="1">
-      <c r="A17" s="13">
-        <v>16</v>
+    <row r="17" spans="1:11" s="16" customFormat="1" ht="255.75" thickBot="1">
+      <c r="A17" s="12">
+        <v>17</v>
       </c>
       <c r="B17" s="13">
         <v>1</v>
@@ -2210,7 +2139,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -2226,8 +2155,8 @@
       <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" s="16" customFormat="1" ht="255.75" thickBot="1">
-      <c r="A18" s="12">
-        <v>17</v>
+      <c r="A18" s="13">
+        <v>18</v>
       </c>
       <c r="B18" s="13">
         <v>1</v>
@@ -2237,24 +2166,24 @@
         <v>10</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" s="16" customFormat="1" ht="255.75" thickBot="1">
-      <c r="A19" s="13">
-        <v>18</v>
+      <c r="A19" s="12">
+        <v>19</v>
       </c>
       <c r="B19" s="13">
         <v>1</v>
@@ -2264,24 +2193,24 @@
         <v>10</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" s="16" customFormat="1" ht="255.75" thickBot="1">
-      <c r="A20" s="12">
-        <v>19</v>
+    <row r="20" spans="1:11" ht="230.25" thickBot="1">
+      <c r="A20" s="13">
+        <v>20</v>
       </c>
       <c r="B20" s="13">
         <v>1</v>
@@ -2291,24 +2220,23 @@
         <v>10</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
+        <v>77</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="230.25" thickBot="1">
-      <c r="A21" s="13">
-        <v>20</v>
+      <c r="A21" s="12">
+        <v>21</v>
       </c>
       <c r="B21" s="13">
         <v>1</v>
@@ -2318,23 +2246,23 @@
         <v>10</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="230.25" thickBot="1">
-      <c r="A22" s="12">
-        <v>21</v>
+      <c r="A22" s="13">
+        <v>22</v>
       </c>
       <c r="B22" s="13">
         <v>1</v>
@@ -2344,23 +2272,23 @@
         <v>10</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F22" s="13">
         <v>1</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:11" ht="230.25" thickBot="1">
-      <c r="A23" s="13">
-        <v>22</v>
+      <c r="A23" s="12">
+        <v>23</v>
       </c>
       <c r="B23" s="13">
         <v>1</v>
@@ -2370,49 +2298,47 @@
         <v>10</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F23" s="13">
         <v>1</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:11" ht="230.25" thickBot="1">
-      <c r="A24" s="12">
-        <v>23</v>
+      <c r="A24" s="13">
+        <v>24</v>
       </c>
       <c r="B24" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="13">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:11" ht="230.25" thickBot="1">
-      <c r="A25" s="13">
-        <v>24</v>
+      <c r="A25" s="12">
+        <v>25</v>
       </c>
       <c r="B25" s="13">
         <v>2</v>
@@ -2422,21 +2348,21 @@
         <v>10</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:11" ht="230.25" thickBot="1">
-      <c r="A26" s="12">
-        <v>25</v>
+    <row r="26" spans="1:11" ht="243" thickBot="1">
+      <c r="A26" s="13">
+        <v>26</v>
       </c>
       <c r="B26" s="13">
         <v>2</v>
@@ -2446,21 +2372,21 @@
         <v>10</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:11" ht="243" thickBot="1">
-      <c r="A27" s="13">
-        <v>26</v>
+      <c r="A27" s="12">
+        <v>27</v>
       </c>
       <c r="B27" s="13">
         <v>2</v>
@@ -2470,45 +2396,45 @@
         <v>10</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:11" ht="243" thickBot="1">
-      <c r="A28" s="12">
-        <v>27</v>
-      </c>
-      <c r="B28" s="13">
+      <c r="A28" s="13">
+        <v>28</v>
+      </c>
+      <c r="B28" s="11">
         <v>2</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="F28" s="11"/>
       <c r="G28" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:11" ht="243" thickBot="1">
-      <c r="A29" s="13">
-        <v>28</v>
+    <row r="29" spans="1:11" ht="153.75" thickBot="1">
+      <c r="A29" s="12">
+        <v>29</v>
       </c>
       <c r="B29" s="11">
         <v>2</v>
@@ -2517,22 +2443,23 @@
       <c r="D29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>97</v>
+      <c r="E29" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="G29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="153.75" thickBot="1">
-      <c r="A30" s="12">
-        <v>29</v>
+      <c r="A30" s="13">
+        <v>30</v>
       </c>
       <c r="B30" s="11">
         <v>2</v>
@@ -2542,170 +2469,122 @@
         <v>10</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="153.75" thickBot="1">
-      <c r="A31" s="13">
-        <v>30</v>
+    <row r="31" spans="1:11" ht="230.25" thickBot="1">
+      <c r="A31" s="12">
+        <v>31</v>
       </c>
       <c r="B31" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>36</v>
+      <c r="G31" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="230.25" thickBot="1">
-      <c r="A32" s="12">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11">
-        <v>1</v>
-      </c>
-      <c r="C32" s="11"/>
+    <row r="32" spans="1:11" s="16" customFormat="1" ht="153.75" thickBot="1">
+      <c r="A32" s="13">
+        <v>32</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="11"/>
+      <c r="E32" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
       <c r="G32" s="13" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" s="16" customFormat="1" ht="153.75" thickBot="1">
-      <c r="A33" s="13">
-        <v>32</v>
-      </c>
-      <c r="B33" s="13">
-        <v>1</v>
-      </c>
-      <c r="C33" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="15"/>
+    </row>
+    <row r="33" spans="1:11" ht="153.75" thickBot="1">
+      <c r="A33" s="12">
+        <v>33</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2</v>
+      </c>
+      <c r="C33" s="11"/>
       <c r="D33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="13">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:11" ht="153.75" thickBot="1">
-      <c r="A34" s="12">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11">
-        <v>2</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" s="20" customFormat="1" ht="217.5" thickBot="1">
-      <c r="A35" s="13">
+      <c r="E33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="17">
-        <v>1</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17" t="s">
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" s="22" customFormat="1" ht="192" thickBot="1">
+      <c r="A34" s="17">
+        <v>35</v>
+      </c>
+      <c r="B34" s="18">
+        <v>1</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="17">
-        <v>1</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
-    </row>
-    <row r="36" spans="1:11" s="20" customFormat="1" ht="243" thickBot="1">
-      <c r="A36" s="12">
-        <v>35</v>
-      </c>
-      <c r="B36" s="17">
-        <v>1</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="17">
-        <v>1</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="19"/>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
